--- a/biology/Botanique/Equisetum_ramosissimum/Equisetum_ramosissimum.xlsx
+++ b/biology/Botanique/Equisetum_ramosissimum/Equisetum_ramosissimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Equisetum ramosissimum, communément appelée Prêle rameuse ou Prêle très rameuse, est une espèce de prêles présente en Europe. Elle se propage principalement par voie végétative. Par hybridation avec Equisetum hyemale elle donne Equisetum × moorei.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Equisetum campanulatum Poir.
 Equisetum capillare Hoffm.
